--- a/Budget PMF.xlsx
+++ b/Budget PMF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC1687AA-4F2C-446A-B9C4-6DE1577A13AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372943EA-DD83-44AD-AB94-892312A252C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94A2A78C-471B-41A5-85CD-86D46B266810}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>TOTAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">Et la somme alouée à notre travail et recherche est de : </t>
-  </si>
-  <si>
     <t>Relais</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   <si>
     <t>Supplies Électrique Relais Module Business Industriel Modification Bistable | eBay</t>
   </si>
+  <si>
+    <t>Et la somme alouée à notre travail et recherche est de : 400000 Frs</t>
+  </si>
 </sst>
 </file>
 
@@ -51,7 +51,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$FCFA-2C0C]_-;\-* #,##0.00\ [$FCFA-2C0C]_-;_-* &quot;-&quot;??\ [$FCFA-2C0C]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$FCFA-2C0C]_-;\-* #,##0.00\ [$FCFA-2C0C]_-;_-* &quot;-&quot;??\ [$FCFA-2C0C]_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -220,44 +220,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4526ED8B-FD9A-46F4-834A-2B9712309771}">
   <dimension ref="C1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,58 +773,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="str">
+      <c r="C1" s="11" t="str">
         <f>[1]Feuil4!B2</f>
         <v xml:space="preserve"> BUDGET POUR LE PROJET PIMP MY FRIDGE :</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="3:25" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="str">
+      <c r="C2" s="8" t="str">
         <f>[1]Feuil4!B4</f>
         <v>Noms des composants</v>
       </c>
-      <c r="D2" s="9" t="str">
+      <c r="D2" s="4" t="str">
         <f>[1]Feuil4!C4</f>
         <v>Quantité</v>
       </c>
-      <c r="E2" s="9" t="str">
+      <c r="E2" s="4" t="str">
         <f>[1]Feuil4!D4</f>
         <v>Prix unitaire</v>
       </c>
-      <c r="F2" s="9" t="str">
+      <c r="F2" s="4" t="str">
         <f>[1]Feuil4!E4</f>
         <v>Prix total</v>
       </c>
-      <c r="G2" s="9" t="str">
+      <c r="G2" s="4" t="str">
         <f>[1]Feuil4!F4</f>
         <v>Référence</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="3:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="6" t="str">
         <f>[1]Feuil4!B5</f>
         <v>Mini frigo USB</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="5">
         <f>[1]Feuil4!C5</f>
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="str">
+      <c r="E3" s="7" t="str">
         <f>[1]Feuil4!D5</f>
         <v>28150 Frs</v>
       </c>
-      <c r="F3" s="14" t="str">
+      <c r="F3" s="7" t="str">
         <f>[1]Feuil4!E5</f>
         <v>28150 Frs</v>
       </c>
-      <c r="G3" s="11" t="str">
+      <c r="G3" s="6" t="str">
         <f>[1]Feuil4!F5</f>
         <v>Petit frigo USB chaud / froid 701233884855 | eBay</v>
       </c>
@@ -848,23 +848,23 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="3:25" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="5" t="str">
         <f>[1]Feuil4!B6</f>
         <v>Carte Arduino</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <f>[1]Feuil4!C6</f>
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="3" t="str">
         <f>[1]Feuil4!D6</f>
         <v>7150 Frs</v>
       </c>
-      <c r="F4" s="8" t="str">
+      <c r="F4" s="3" t="str">
         <f>[1]Feuil4!E6</f>
         <v>7150 Frs</v>
       </c>
-      <c r="G4" s="11" t="str">
+      <c r="G4" s="6" t="str">
         <f>[1]Feuil4!F6</f>
         <v>CARTE DEVELOPPEMENT UNO R3 ATMEGA328 CH34X USB ARDUINO (646) | eBay</v>
       </c>
@@ -888,23 +888,23 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="3:25" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="5" t="str">
         <f>[1]Feuil4!B7</f>
         <v>Capteur DHT11</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="5">
         <f>[1]Feuil4!C7</f>
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="3" t="str">
         <f>[1]Feuil4!D7</f>
         <v>4526 Frs</v>
       </c>
-      <c r="F5" s="8" t="str">
+      <c r="F5" s="3" t="str">
         <f>[1]Feuil4!E7</f>
         <v>4526 Frs</v>
       </c>
-      <c r="G5" s="11" t="str">
+      <c r="G5" s="6" t="str">
         <f>[1]Feuil4!F7</f>
         <v>Whadda - DHT11 digital temperature humidity sensor module for Arduino® : Amazon.fr: Bricolage</v>
       </c>
@@ -928,23 +928,23 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="3:25" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="str">
+      <c r="C6" s="5" t="str">
         <f>[1]Feuil4!B8</f>
         <v>Capteur DHT22</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="5">
         <f>[1]Feuil4!C8</f>
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="str">
+      <c r="E6" s="3" t="str">
         <f>[1]Feuil4!D8</f>
         <v>6225 Frs</v>
       </c>
-      <c r="F6" s="8" t="str">
+      <c r="F6" s="3" t="str">
         <f>[1]Feuil4!E8</f>
         <v>6225 Frs</v>
       </c>
-      <c r="G6" s="11" t="str">
+      <c r="G6" s="6" t="str">
         <f>[1]Feuil4!F8</f>
         <v>AZDelivery Capteur numérique de température et d'humidité DHT22 AM2302 Compatible avec Arduino et Raspberry Pi, e-Book Inclus! : Amazon.fr: Commerce, Industrie et Science</v>
       </c>
@@ -968,23 +968,23 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="3:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="6" t="str">
         <f>[1]Feuil4!B9</f>
         <v>Transistor MOSFET IRF510</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="5">
         <f>[1]Feuil4!C9</f>
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="str">
+      <c r="E7" s="3" t="str">
         <f>[1]Feuil4!D9</f>
         <v>2500 Frs</v>
       </c>
-      <c r="F7" s="8" t="str">
+      <c r="F7" s="3" t="str">
         <f>[1]Feuil4!E9</f>
         <v>2500 Frs</v>
       </c>
-      <c r="G7" s="11" t="str">
+      <c r="G7" s="6" t="str">
         <f>[1]Feuil4!F9</f>
         <v>prix du transistor Mosfet IRF 510 - Recherche (bing.com)</v>
       </c>
@@ -1008,20 +1008,20 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="3:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>4</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1043,23 +1043,23 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="3:25" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="str">
+      <c r="C9" s="5" t="str">
         <f>[1]Feuil4!B10</f>
         <v>Résistance de 10 K</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="5">
         <f>[1]Feuil4!C10</f>
         <v>2</v>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="3" t="str">
         <f>[1]Feuil4!D10</f>
         <v>623 Frs</v>
       </c>
-      <c r="F9" s="8" t="str">
+      <c r="F9" s="3" t="str">
         <f>[1]Feuil4!E10</f>
         <v>1246 Frs</v>
       </c>
-      <c r="G9" s="11" t="str">
+      <c r="G9" s="6" t="str">
         <f>[1]Feuil4!F10</f>
         <v>10kohm Résistances traversantes | Farnell FR</v>
       </c>
@@ -1083,23 +1083,23 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="3:25" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="str">
+      <c r="C10" s="5" t="str">
         <f>[1]Feuil4!B11</f>
         <v>Plaque à essaie</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="5">
         <f>[1]Feuil4!C11</f>
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="3" t="str">
         <f>[1]Feuil4!D11</f>
         <v>11700 FRS</v>
       </c>
-      <c r="F10" s="8" t="str">
+      <c r="F10" s="3" t="str">
         <f>[1]Feuil4!E11</f>
         <v>11700 Frs</v>
       </c>
-      <c r="G10" s="11" t="str">
+      <c r="G10" s="6" t="str">
         <f>[1]Feuil4!F11</f>
         <v>Wendry Planche à Pain, Planche à Pain de Test pour Circuit électronique, Banc d'essai, Enregistrement du Test de Circuit de brasage Libre du Temps de Montage du Circuit, Plaque à Pain enfichable : Amazon.fr: Commerce, Industrie et Science</v>
       </c>
@@ -1123,23 +1123,23 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="3:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="6" t="str">
         <f>[1]Feuil4!B12</f>
         <v>Cables de connexion</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="5">
         <f>[1]Feuil4!C12</f>
         <v>15</v>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="3" t="str">
         <f>[1]Feuil4!D12</f>
         <v>196 Frs</v>
       </c>
-      <c r="F11" s="8" t="str">
+      <c r="F11" s="3" t="str">
         <f>[1]Feuil4!E12</f>
         <v>2940 Frs</v>
       </c>
-      <c r="G11" s="11" t="str">
+      <c r="G11" s="6" t="str">
         <f>[1]Feuil4!F12</f>
         <v>Amazon.fr : cable electrique</v>
       </c>
@@ -1163,23 +1163,23 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="str">
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="str">
         <f>[1]Feuil4!$D$13</f>
         <v>64437 Frs</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>

--- a/Budget PMF.xlsx
+++ b/Budget PMF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372943EA-DD83-44AD-AB94-892312A252C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE5E898-6230-4CCF-90B1-CD9432C02F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94A2A78C-471B-41A5-85CD-86D46B266810}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Supplies Électrique Relais Module Business Industriel Modification Bistable | eBay</t>
   </si>
   <si>
-    <t>Et la somme alouée à notre travail et recherche est de : 400000 Frs</t>
+    <t>Et la somme alouée à notre travail et recherche est de : 200000 Frs</t>
   </si>
 </sst>
 </file>
@@ -760,7 +760,7 @@
   <dimension ref="C1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
